--- a/output/【河洛話注音】江南逢李龜年.xlsx
+++ b/output/【河洛話注音】江南逢李龜年.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7179955-5DC9-ED40-A4EF-4967A6B93C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F542E11-11C0-4B11-9AAF-8C82D7BCD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-85320" yWindow="2400" windowWidth="28540" windowHeight="17320" activeTab="3" xr2:uid="{681BE871-B290-2047-9786-795A61B1CDAF}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="16830" windowHeight="11895" firstSheet="3" activeTab="5" xr2:uid="{681BE871-B290-2047-9786-795A61B1CDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="278">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,9 +232,6 @@
     <t>am</t>
   </si>
   <si>
-    <t>hong5</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -259,32 +256,12 @@
     <t>ian</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsok4</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>tsia2</t>
-  </si>
-  <si>
     <t>ia</t>
   </si>
   <si>
-    <t>tse2</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>too7</t>
   </si>
   <si>
@@ -303,21 +280,6 @@
     <t>ki5</t>
   </si>
   <si>
-    <t>qong5</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>qong7</t>
-  </si>
-  <si>
-    <t>thik8</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
     <t>ik</t>
   </si>
   <si>
@@ -330,48 +292,24 @@
     <t>im</t>
   </si>
   <si>
-    <t>siang5</t>
-  </si>
-  <si>
-    <t>iang</t>
-  </si>
-  <si>
     <t>kian3</t>
   </si>
   <si>
-    <t>hian7</t>
-  </si>
-  <si>
-    <t>tshui1</t>
-  </si>
-  <si>
-    <t>tsh</t>
-  </si>
-  <si>
     <t>kiu2</t>
   </si>
   <si>
     <t>iu</t>
   </si>
   <si>
-    <t>kiu5</t>
-  </si>
-  <si>
     <t>tong5</t>
   </si>
   <si>
-    <t>tsian5</t>
-  </si>
-  <si>
     <t>ki1</t>
   </si>
   <si>
     <t>ki2</t>
   </si>
   <si>
-    <t>tok8</t>
-  </si>
-  <si>
     <t>bun5</t>
   </si>
   <si>
@@ -381,67 +319,28 @@
     <t>un</t>
   </si>
   <si>
-    <t>bun7</t>
-  </si>
-  <si>
-    <t>tsing1</t>
-  </si>
-  <si>
     <t>ing</t>
   </si>
   <si>
-    <t>tsing3</t>
-  </si>
-  <si>
-    <t>si7</t>
-  </si>
-  <si>
     <t>ho2</t>
   </si>
   <si>
     <t>o</t>
   </si>
   <si>
-    <t>honn2</t>
-  </si>
-  <si>
-    <t>onn</t>
-  </si>
-  <si>
-    <t>honn3</t>
-  </si>
-  <si>
-    <t>hong1</t>
-  </si>
-  <si>
-    <t>hong2</t>
-  </si>
-  <si>
     <t>king2</t>
   </si>
   <si>
-    <t>qing2</t>
-  </si>
-  <si>
     <t>lok8</t>
   </si>
   <si>
-    <t>hua5</t>
-  </si>
-  <si>
     <t>ua</t>
   </si>
   <si>
     <t>si5</t>
   </si>
   <si>
-    <t>tsiat4</t>
-  </si>
-  <si>
     <t>iat</t>
-  </si>
-  <si>
-    <t>qiu7</t>
   </si>
   <si>
     <t>kun1</t>
@@ -957,7 +856,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="Heiti TC Light"/>
-        <charset val="136"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">《江南逢李龜年》【方音符號注音】
 </t>
@@ -977,7 +876,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="Heiti TC Light"/>
-        <charset val="136"/>
+        <family val="1"/>
       </rPr>
       <t>圖片</t>
     </r>
@@ -996,7 +895,7 @@
         <sz val="18"/>
         <color theme="1"/>
         <rFont val="Heiti TC Light"/>
-        <charset val="136"/>
+        <family val="1"/>
       </rPr>
       <t>江南逢李龜年</t>
     </r>
@@ -1014,6 +913,72 @@
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong5</t>
+  </si>
+  <si>
+    <t>iong</t>
+  </si>
+  <si>
+    <t>coo3</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cia2</t>
+  </si>
+  <si>
+    <t>too2</t>
+  </si>
+  <si>
+    <t>Øiong5</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>tik8</t>
+  </si>
+  <si>
+    <t>siong5</t>
+  </si>
+  <si>
+    <t>chue1</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>cian5</t>
+  </si>
+  <si>
+    <t>ki7</t>
+  </si>
+  <si>
+    <t>cing1</t>
+  </si>
+  <si>
+    <t>si2</t>
+  </si>
+  <si>
+    <t>hiong1</t>
+  </si>
+  <si>
+    <t>hong3</t>
+  </si>
+  <si>
+    <t>hua1</t>
+  </si>
+  <si>
+    <t>ciat4</t>
+  </si>
+  <si>
+    <t>Øiu7</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1003,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Heiti TC Light"/>
-      <charset val="136"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -1124,9 +1089,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1164,7 +1129,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1270,7 +1235,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1412,7 +1377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1424,69 +1389,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1496,57 +1461,57 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -1556,37 +1521,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1596,42 +1561,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -1641,37 +1606,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -1681,12 +1646,12 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1703,11 +1668,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="3" max="3" width="85.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="85.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -1765,69 +1730,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1837,57 +1802,57 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -1897,37 +1862,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1937,42 +1902,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -1982,37 +1947,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -2022,12 +1987,12 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2042,69 +2007,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2114,57 +2079,57 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2174,37 +2139,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2214,42 +2179,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -2259,37 +2224,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -2299,12 +2264,12 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2317,71 +2282,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83191CB3-0A4B-E643-AE0E-35C0C150EB91}">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="191">
+    <row r="1" spans="1:1" ht="182.25">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2391,57 +2356,57 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2451,37 +2416,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2491,42 +2456,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -2536,37 +2501,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -2576,12 +2541,12 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2596,69 +2561,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="184">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2668,57 +2633,57 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2728,37 +2693,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2768,42 +2733,42 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -2813,37 +2778,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -2853,12 +2818,12 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2871,9 +2836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32768A57-D340-C542-8053-875599655585}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2920,13 +2885,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2940,13 +2905,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2960,19 +2925,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2980,13 +2945,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2995,14 +2960,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="46">
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3010,19 +2975,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3030,19 +2995,19 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3055,16 +3020,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3075,13 +3040,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3090,14 +3055,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="46">
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3105,13 +3070,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -3125,13 +3090,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -3145,13 +3110,13 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -3165,13 +3130,13 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3185,13 +3150,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -3205,13 +3170,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -3225,13 +3190,13 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -3250,19 +3215,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3270,19 +3235,19 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3290,13 +3255,13 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -3310,13 +3275,13 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -3330,19 +3295,19 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3350,16 +3315,16 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3370,13 +3335,13 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -3390,9 +3355,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="46">
+    <row r="32" spans="1:6" ht="51">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3400,13 +3365,13 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3420,16 +3385,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3480,19 +3445,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3500,13 +3465,13 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3520,19 +3485,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3545,13 +3510,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -3565,16 +3530,16 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3585,13 +3550,13 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -3605,13 +3570,13 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -3625,13 +3590,13 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -3645,13 +3610,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
-        <v>59</v>
-      </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -3665,13 +3630,13 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3685,7 +3650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="46">
+    <row r="49" spans="1:1" ht="51">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -3698,539 +3663,435 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06972A6C-E85C-E943-830F-256038A48279}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1">
-        <v>8441</v>
+        <v>1459</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>10483</v>
+        <v>8636</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>15920</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>18555</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>23023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>7221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>18937</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>17916</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>17930</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>3490</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>3518</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>1941</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>2806</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1956</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>2922</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>10538</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>863</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>1157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>10232</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>10334</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>28</v>
       </c>
-      <c r="B9">
-        <v>9099</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B15">
+        <v>15498</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>9317</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>15777</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>22942</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>4100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>17271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>7945</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>19107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>2998</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B22">
+        <v>12868</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>18537</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>5109</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B24">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>483</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>541</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>3175</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>3400</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>6300</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>10596</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>10599</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>2363</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B25">
+        <v>14633</v>
+      </c>
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>38</v>
-      </c>
-      <c r="B21">
-        <v>2493</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>39</v>
-      </c>
-      <c r="B22">
-        <v>3280</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>39</v>
-      </c>
-      <c r="B23">
-        <v>3352</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
+      <c r="D25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4245,7 +4106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4258,12 +4119,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="128.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
